--- a/Documents/Word Documents (Raw and latest)/Use Case - Traceablilty Matrix.xlsx
+++ b/Documents/Word Documents (Raw and latest)/Use Case - Traceablilty Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coms\SD\BorrowMyBooks\Documents\Word Documents (Raw and latest)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Coms\Software Design\BorrowMyBooks\Documents\Word Documents (Raw and latest)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -581,100 +581,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="12" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="26" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" customWidth="1"/>
+    <col min="3" max="11" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="P1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
-        <v>10</v>
+      <c r="B2" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>34</v>
@@ -682,9 +685,7 @@
       <c r="E2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -703,22 +704,24 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>10</v>
+      <c r="B3" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>34</v>
@@ -726,9 +729,7 @@
       <c r="E3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -747,35 +748,35 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="B4" s="8">
         <v>9</v>
       </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -791,35 +792,35 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="B5" s="8">
         <v>9</v>
       </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -835,71 +836,71 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
-        <v>10</v>
-      </c>
+      <c r="B6" s="8">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="Q6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="B7" s="8">
         <v>6</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -908,40 +909,40 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="R7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -957,79 +958,79 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="S8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
-        <v>10</v>
-      </c>
+      <c r="B9" s="8">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="Q9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1046,39 +1047,39 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="T10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="I11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1093,23 +1094,23 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
         <v>7</v>
       </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1117,16 +1118,16 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="K12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="O12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1135,23 +1136,23 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8">
+      <c r="B13" s="8">
         <v>7</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1169,29 +1170,29 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="U13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8">
-        <v>10</v>
-      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1210,28 +1211,28 @@
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="V14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="11"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="B15" s="8">
         <v>8</v>
       </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1251,27 +1252,27 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="12"/>
+      <c r="W15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8">
+      <c r="B16" s="8">
         <v>9</v>
       </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1292,26 +1293,26 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" s="12"/>
+      <c r="X16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8">
-        <v>10</v>
-      </c>
+      <c r="B17" s="8">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -1322,10 +1323,10 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="N17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -1335,23 +1336,23 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="B18" s="8">
         <v>7</v>
       </c>
+      <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1359,16 +1360,16 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="K18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="O18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -1377,38 +1378,38 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="B19" s="8">
         <v>4</v>
       </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="J19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="M19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -1419,38 +1420,38 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="B20" s="8">
         <v>4</v>
       </c>
+      <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="J20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="M20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -1461,22 +1462,24 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="10">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
         <v>10</v>
       </c>
       <c r="E21" s="1">
@@ -1492,64 +1495,62 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1">
+        <v>10</v>
+      </c>
+      <c r="O21" s="1">
+        <v>7</v>
+      </c>
+      <c r="P21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>10</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>6</v>
+      </c>
+      <c r="U21" s="1">
+        <v>7</v>
+      </c>
+      <c r="V21" s="1">
+        <v>10</v>
+      </c>
+      <c r="W21" s="1">
         <v>8</v>
       </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
-      <c r="L21" s="1">
-        <v>7</v>
-      </c>
-      <c r="M21" s="1">
-        <v>6</v>
-      </c>
-      <c r="N21" s="1">
-        <v>4</v>
-      </c>
-      <c r="O21" s="1">
-        <v>10</v>
-      </c>
-      <c r="P21" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>10</v>
-      </c>
-      <c r="R21" s="1">
-        <v>10</v>
-      </c>
-      <c r="S21" s="1">
-        <v>6</v>
-      </c>
-      <c r="T21" s="1">
-        <v>5</v>
-      </c>
-      <c r="U21" s="1">
-        <v>6</v>
-      </c>
-      <c r="V21" s="1">
-        <v>7</v>
-      </c>
-      <c r="W21" s="1">
-        <v>10</v>
-      </c>
       <c r="X21" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="1">
         <v>9</v>
       </c>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1570,11 +1571,10 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>